--- a/biology/Botanique/Maesa/Maesa.xlsx
+++ b/biology/Botanique/Maesa/Maesa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maesa est un genre de plantes à fleurs appartenant à la famille des Primulaceae. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Maesa argentea (Wall.) A. DC.
 Maesa carolinensis Mez
 Maesa chisia Buch.-Ham. ex D. Don
@@ -549,7 +565,7 @@
 Maesa montana A. DC.
 Maesa perlarius (Lour.) Merr.
 Maesa rugosa C. B. Clarke
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Maesa acuminatissima Merr.
 Maesa alnifolia Harv.
 Maesa ambigua C.Y. Wu &amp; C. Chen
@@ -707,7 +723,7 @@
 Maesa wardii M.P. Nayar &amp; G.S. Giri
 Maesa welwitschii Gilg
 Maesa ziroensis G.S. Giri &amp; G.D. Pal
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Maesa chisia Buch.-Ham. ex D. Don
 Maesa indica (Roxb.) A. DC.
 Maesa japonica Moritzi &amp; Zoll.
@@ -716,9 +732,9 @@
 Maesa montana A. DC.
 Maesa perlarius (Lour.) Merr.
 Maesa rugosa C. B. Clarke
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Maesa carolinensis Mez
-Selon NCBI  (24 juillet 2017)[6] :
+Selon NCBI  (24 juillet 2017) :
 Maesa argentea
 Maesa dependens
 Maesa indica
@@ -733,7 +749,7 @@
 Maesa salicifolia
 Maesa tenera
 Maesa ternata
-Selon The Plant List            (24 juillet 2017)[7] :
+Selon The Plant List            (24 juillet 2017) :
 Maesa acuminatissima Merr.
 Maesa alnifolia Harv.
 Maesa ambigua C.Y. Wu &amp; C. Chen
@@ -773,7 +789,7 @@
 Maesa tenera Mez
 Maesa vestita Jacq.-Fél.
 Maesa welwitschii Gilg
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Maesa acuminata A. DC.
 Maesa acuminatissima Merr.
 Maesa alnifolia Harv.
